--- a/medicine/Enfance/Solomon_Schonfeld/Solomon_Schonfeld.xlsx
+++ b/medicine/Enfance/Solomon_Schonfeld/Solomon_Schonfeld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Solomon Schonfeld (21 février 1912, Londres, Royaume-Uni– 6 février 1984, Londres, Royaume-Uni) est un rabbin orthodoxe britannique, dont les parents sont d'origine hongroise, connu pour le sauvetage d'enfants juifs durant la Shoah, les Kindertransport. Il est le gendre du grand-rabbin du Royaume-Uni Joseph Hertz.
 </t>
@@ -511,14 +523,86 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Solomon Schonfeld est né le 21 février 1912 à Londres, au Royaume-Uni[1]. Il est le fils du rabbin Dr Victor Schonfeld (13 octobre 1880, Süttő, Komárom-Esztergom, Hongrie-1930, Londres, Royaume-Uni[2]) et de Ella Rachel Leah Sternberg (12 août 1889, Budapest, Hongrie-7 mars 1971, Haifa, Israël[3]).
-Il fait partie d'une fratrie de sept enfants, dont: Aaron (Eliezer David) Schonfeld (13 août 1920, Londres, Royaume-Uni-10 mars 1955[4]) et  Moses Schoenfeld (19 novembre 1910, Londres, Royaume-Uni-3 janvier, 1998, New York, États-Unis[5]).
-Famille
-Il épouse le 16 janvier 1940[6] Judith (Yehudith)  Helen Hertz (22 mai 1913, Londres, Royaume-Uni-9 mai 1987, Londres, Royaume-Uni[7]), la fille du Grand-rabbin du Royaume-Uni Joseph Hertz. Ils ont 3 enfants: Victor Daniel Schonfield (19 décembre 1940, Londres, Royaume-Uni-), Jonathan Benedict Schonfeld (6 juillet 1944, Londres, Royaume-Uni-) et le Dr Jeremy Joseph Schonfield (11 juillet 1951, Londres, Royaume-Uni-)[8],[9].
-La Shoah
-Solomon Schonfeld sauve 3 500 vies durant la Shoah[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Solomon Schonfeld est né le 21 février 1912 à Londres, au Royaume-Uni. Il est le fils du rabbin Dr Victor Schonfeld (13 octobre 1880, Süttő, Komárom-Esztergom, Hongrie-1930, Londres, Royaume-Uni) et de Ella Rachel Leah Sternberg (12 août 1889, Budapest, Hongrie-7 mars 1971, Haifa, Israël).
+Il fait partie d'une fratrie de sept enfants, dont: Aaron (Eliezer David) Schonfeld (13 août 1920, Londres, Royaume-Uni-10 mars 1955) et  Moses Schoenfeld (19 novembre 1910, Londres, Royaume-Uni-3 janvier, 1998, New York, États-Unis).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Solomon_Schonfeld</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Solomon_Schonfeld</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il épouse le 16 janvier 1940 Judith (Yehudith)  Helen Hertz (22 mai 1913, Londres, Royaume-Uni-9 mai 1987, Londres, Royaume-Uni), la fille du Grand-rabbin du Royaume-Uni Joseph Hertz. Ils ont 3 enfants: Victor Daniel Schonfield (19 décembre 1940, Londres, Royaume-Uni-), Jonathan Benedict Schonfeld (6 juillet 1944, Londres, Royaume-Uni-) et le Dr Jeremy Joseph Schonfield (11 juillet 1951, Londres, Royaume-Uni-),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Solomon_Schonfeld</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Solomon_Schonfeld</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>La Shoah</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Solomon Schonfeld sauve 3 500 vies durant la Shoah.
 </t>
         </is>
       </c>
